--- a/NameIDList.xlsx
+++ b/NameIDList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kletz\Documents\GitHub\JFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEB9D9-FBFE-41FF-925A-7645782F3E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A42066C-1577-4897-A847-4720139D9B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2963" yWindow="1402" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7528" uniqueCount="4247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7528" uniqueCount="4248">
   <si>
     <t>ID</t>
   </si>
@@ -12761,6 +12761,9 @@
   </si>
   <si>
     <t>CIVIL/STRUCTURAL SUPERINTENDENT</t>
+  </si>
+  <si>
+    <t>Lu</t>
   </si>
 </sst>
 </file>
@@ -13604,8 +13607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1882"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14500,10 +14503,10 @@
         <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>1480</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>4247</v>
       </c>
       <c r="D64" t="s">
         <v>3866</v>
